--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.34742968064381</v>
+        <v>6.527126666666668</v>
       </c>
       <c r="H2">
-        <v>6.34742968064381</v>
+        <v>19.58138</v>
       </c>
       <c r="I2">
-        <v>0.2120965649088947</v>
+        <v>0.2130391554800433</v>
       </c>
       <c r="J2">
-        <v>0.2120965649088947</v>
+        <v>0.2130391554800433</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.14852789838587</v>
+        <v>7.62053</v>
       </c>
       <c r="N2">
-        <v>7.14852789838587</v>
+        <v>22.86159</v>
       </c>
       <c r="O2">
-        <v>0.2173799453091154</v>
+        <v>0.2214906134136664</v>
       </c>
       <c r="P2">
-        <v>0.2173799453091154</v>
+        <v>0.2214906134136664</v>
       </c>
       <c r="Q2">
-        <v>45.37477815512479</v>
+        <v>49.74016457713333</v>
       </c>
       <c r="R2">
-        <v>45.37477815512479</v>
+        <v>447.6614811942001</v>
       </c>
       <c r="S2">
-        <v>0.04610553968014679</v>
+        <v>0.04718617322840424</v>
       </c>
       <c r="T2">
-        <v>0.04610553968014679</v>
+        <v>0.04718617322840424</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.34742968064381</v>
+        <v>6.527126666666668</v>
       </c>
       <c r="H3">
-        <v>6.34742968064381</v>
+        <v>19.58138</v>
       </c>
       <c r="I3">
-        <v>0.2120965649088947</v>
+        <v>0.2130391554800433</v>
       </c>
       <c r="J3">
-        <v>0.2120965649088947</v>
+        <v>0.2130391554800433</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.16081571578682</v>
+        <v>9.340016666666665</v>
       </c>
       <c r="N3">
-        <v>9.16081571578682</v>
+        <v>28.02005</v>
       </c>
       <c r="O3">
-        <v>0.2785717070131705</v>
+        <v>0.2714674728390108</v>
       </c>
       <c r="P3">
-        <v>0.2785717070131705</v>
+        <v>0.2714674728390108</v>
       </c>
       <c r="Q3">
-        <v>58.14763357329353</v>
+        <v>60.96347185211111</v>
       </c>
       <c r="R3">
-        <v>58.14763357329353</v>
+        <v>548.6712466690001</v>
       </c>
       <c r="S3">
-        <v>0.05908410213830052</v>
+        <v>0.05783320115392448</v>
       </c>
       <c r="T3">
-        <v>0.05908410213830052</v>
+        <v>0.05783320115392448</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.34742968064381</v>
+        <v>6.527126666666668</v>
       </c>
       <c r="H4">
-        <v>6.34742968064381</v>
+        <v>19.58138</v>
       </c>
       <c r="I4">
-        <v>0.2120965649088947</v>
+        <v>0.2130391554800433</v>
       </c>
       <c r="J4">
-        <v>0.2120965649088947</v>
+        <v>0.2130391554800433</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.133630529965</v>
+        <v>7.970095666666666</v>
       </c>
       <c r="N4">
-        <v>7.133630529965</v>
+        <v>23.910287</v>
       </c>
       <c r="O4">
-        <v>0.2169269304816417</v>
+        <v>0.2316507353393536</v>
       </c>
       <c r="P4">
-        <v>0.2169269304816417</v>
+        <v>0.2316507353393536</v>
       </c>
       <c r="Q4">
-        <v>45.28021815664667</v>
+        <v>52.02182396178445</v>
       </c>
       <c r="R4">
-        <v>45.28021815664667</v>
+        <v>468.1964156560601</v>
       </c>
       <c r="S4">
-        <v>0.04600945679138681</v>
+        <v>0.04935067702302692</v>
       </c>
       <c r="T4">
-        <v>0.04600945679138681</v>
+        <v>0.04935067702302692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.34742968064381</v>
+        <v>6.527126666666668</v>
       </c>
       <c r="H5">
-        <v>6.34742968064381</v>
+        <v>19.58138</v>
       </c>
       <c r="I5">
-        <v>0.2120965649088947</v>
+        <v>0.2130391554800433</v>
       </c>
       <c r="J5">
-        <v>0.2120965649088947</v>
+        <v>0.2130391554800433</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.44197247879308</v>
+        <v>9.475014333333332</v>
       </c>
       <c r="N5">
-        <v>9.44197247879308</v>
+        <v>28.425043</v>
       </c>
       <c r="O5">
-        <v>0.2871214171960725</v>
+        <v>0.2753911784079691</v>
       </c>
       <c r="P5">
-        <v>0.2871214171960725</v>
+        <v>0.2753911784079691</v>
       </c>
       <c r="Q5">
-        <v>59.9322563557132</v>
+        <v>61.84461872214889</v>
       </c>
       <c r="R5">
-        <v>59.9322563557132</v>
+        <v>556.60156849934</v>
       </c>
       <c r="S5">
-        <v>0.06089746629906063</v>
+        <v>0.05866910407468769</v>
       </c>
       <c r="T5">
-        <v>0.06089746629906063</v>
+        <v>0.05866910407468769</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.7486637459409</v>
+        <v>10.77811266666667</v>
       </c>
       <c r="H6">
-        <v>10.7486637459409</v>
+        <v>32.334338</v>
       </c>
       <c r="I6">
-        <v>0.3591618611903403</v>
+        <v>0.351787262211666</v>
       </c>
       <c r="J6">
-        <v>0.3591618611903403</v>
+        <v>0.351787262211666</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.14852789838587</v>
+        <v>7.62053</v>
       </c>
       <c r="N6">
-        <v>7.14852789838587</v>
+        <v>22.86159</v>
       </c>
       <c r="O6">
-        <v>0.2173799453091154</v>
+        <v>0.2214906134136664</v>
       </c>
       <c r="P6">
-        <v>0.2173799453091154</v>
+        <v>0.2214906134136664</v>
       </c>
       <c r="Q6">
-        <v>76.8371226582273</v>
+        <v>82.13493091971333</v>
       </c>
       <c r="R6">
-        <v>76.8371226582273</v>
+        <v>739.21437827742</v>
       </c>
       <c r="S6">
-        <v>0.07807458574267627</v>
+        <v>0.0779175764983762</v>
       </c>
       <c r="T6">
-        <v>0.07807458574267627</v>
+        <v>0.07791757649837619</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.7486637459409</v>
+        <v>10.77811266666667</v>
       </c>
       <c r="H7">
-        <v>10.7486637459409</v>
+        <v>32.334338</v>
       </c>
       <c r="I7">
-        <v>0.3591618611903403</v>
+        <v>0.351787262211666</v>
       </c>
       <c r="J7">
-        <v>0.3591618611903403</v>
+        <v>0.351787262211666</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.16081571578682</v>
+        <v>9.340016666666665</v>
       </c>
       <c r="N7">
-        <v>9.16081571578682</v>
+        <v>28.02005</v>
       </c>
       <c r="O7">
-        <v>0.2785717070131705</v>
+        <v>0.2714674728390108</v>
       </c>
       <c r="P7">
-        <v>0.2785717070131705</v>
+        <v>0.2714674728390108</v>
       </c>
       <c r="Q7">
-        <v>98.46652776752343</v>
+        <v>100.6677519418778</v>
       </c>
       <c r="R7">
-        <v>98.46652776752343</v>
+        <v>906.0097674769</v>
       </c>
       <c r="S7">
-        <v>0.1000523327658205</v>
+        <v>0.09549879904955542</v>
       </c>
       <c r="T7">
-        <v>0.1000523327658205</v>
+        <v>0.09549879904955542</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.7486637459409</v>
+        <v>10.77811266666667</v>
       </c>
       <c r="H8">
-        <v>10.7486637459409</v>
+        <v>32.334338</v>
       </c>
       <c r="I8">
-        <v>0.3591618611903403</v>
+        <v>0.351787262211666</v>
       </c>
       <c r="J8">
-        <v>0.3591618611903403</v>
+        <v>0.351787262211666</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.133630529965</v>
+        <v>7.970095666666666</v>
       </c>
       <c r="N8">
-        <v>7.133630529965</v>
+        <v>23.910287</v>
       </c>
       <c r="O8">
-        <v>0.2169269304816417</v>
+        <v>0.2316507353393536</v>
       </c>
       <c r="P8">
-        <v>0.2169269304816417</v>
+        <v>0.2316507353393536</v>
       </c>
       <c r="Q8">
-        <v>76.67699585437197</v>
+        <v>85.90258905944511</v>
       </c>
       <c r="R8">
-        <v>76.67699585437197</v>
+        <v>773.123301535006</v>
       </c>
       <c r="S8">
-        <v>0.07791188009409397</v>
+        <v>0.08149177797435044</v>
       </c>
       <c r="T8">
-        <v>0.07791188009409397</v>
+        <v>0.08149177797435044</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.7486637459409</v>
+        <v>10.77811266666667</v>
       </c>
       <c r="H9">
-        <v>10.7486637459409</v>
+        <v>32.334338</v>
       </c>
       <c r="I9">
-        <v>0.3591618611903403</v>
+        <v>0.351787262211666</v>
       </c>
       <c r="J9">
-        <v>0.3591618611903403</v>
+        <v>0.351787262211666</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.44197247879308</v>
+        <v>9.475014333333332</v>
       </c>
       <c r="N9">
-        <v>9.44197247879308</v>
+        <v>28.425043</v>
       </c>
       <c r="O9">
-        <v>0.2871214171960725</v>
+        <v>0.2753911784079691</v>
       </c>
       <c r="P9">
-        <v>0.2871214171960725</v>
+        <v>0.2753911784079691</v>
       </c>
       <c r="Q9">
-        <v>101.4885872729749</v>
+        <v>102.1227720029482</v>
       </c>
       <c r="R9">
-        <v>101.4885872729749</v>
+        <v>919.104948026534</v>
       </c>
       <c r="S9">
-        <v>0.1031230625877496</v>
+        <v>0.09687910868938393</v>
       </c>
       <c r="T9">
-        <v>0.1031230625877496</v>
+        <v>0.09687910868938393</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.14038630818428</v>
+        <v>6.559571333333333</v>
       </c>
       <c r="H10">
-        <v>6.14038630818428</v>
+        <v>19.678714</v>
       </c>
       <c r="I10">
-        <v>0.2051783018803605</v>
+        <v>0.2140981182885632</v>
       </c>
       <c r="J10">
-        <v>0.2051783018803605</v>
+        <v>0.2140981182885631</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.14852789838587</v>
+        <v>7.62053</v>
       </c>
       <c r="N10">
-        <v>7.14852789838587</v>
+        <v>22.86159</v>
       </c>
       <c r="O10">
-        <v>0.2173799453091154</v>
+        <v>0.2214906134136664</v>
       </c>
       <c r="P10">
-        <v>0.2173799453091154</v>
+        <v>0.2214906134136664</v>
       </c>
       <c r="Q10">
-        <v>43.89472283092194</v>
+        <v>49.98741013280667</v>
       </c>
       <c r="R10">
-        <v>43.89472283092194</v>
+        <v>449.88669119526</v>
       </c>
       <c r="S10">
-        <v>0.04460164804136993</v>
+        <v>0.04742072355044556</v>
       </c>
       <c r="T10">
-        <v>0.04460164804136993</v>
+        <v>0.04742072355044555</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.14038630818428</v>
+        <v>6.559571333333333</v>
       </c>
       <c r="H11">
-        <v>6.14038630818428</v>
+        <v>19.678714</v>
       </c>
       <c r="I11">
-        <v>0.2051783018803605</v>
+        <v>0.2140981182885632</v>
       </c>
       <c r="J11">
-        <v>0.2051783018803605</v>
+        <v>0.2140981182885631</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.16081571578682</v>
+        <v>9.340016666666665</v>
       </c>
       <c r="N11">
-        <v>9.16081571578682</v>
+        <v>28.02005</v>
       </c>
       <c r="O11">
-        <v>0.2785717070131705</v>
+        <v>0.2714674728390108</v>
       </c>
       <c r="P11">
-        <v>0.2785717070131705</v>
+        <v>0.2714674728390108</v>
       </c>
       <c r="Q11">
-        <v>56.25094739301677</v>
+        <v>61.26650557952222</v>
       </c>
       <c r="R11">
-        <v>56.25094739301677</v>
+        <v>551.3985502157</v>
       </c>
       <c r="S11">
-        <v>0.05715686979687562</v>
+        <v>0.05812067511138386</v>
       </c>
       <c r="T11">
-        <v>0.05715686979687562</v>
+        <v>0.05812067511138385</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.14038630818428</v>
+        <v>6.559571333333333</v>
       </c>
       <c r="H12">
-        <v>6.14038630818428</v>
+        <v>19.678714</v>
       </c>
       <c r="I12">
-        <v>0.2051783018803605</v>
+        <v>0.2140981182885632</v>
       </c>
       <c r="J12">
-        <v>0.2051783018803605</v>
+        <v>0.2140981182885631</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.133630529965</v>
+        <v>7.970095666666666</v>
       </c>
       <c r="N12">
-        <v>7.133630529965</v>
+        <v>23.910287</v>
       </c>
       <c r="O12">
-        <v>0.2169269304816417</v>
+        <v>0.2316507353393536</v>
       </c>
       <c r="P12">
-        <v>0.2169269304816417</v>
+        <v>0.2316507353393536</v>
       </c>
       <c r="Q12">
-        <v>43.80324723384246</v>
+        <v>52.28041105899089</v>
       </c>
       <c r="R12">
-        <v>43.80324723384246</v>
+        <v>470.523699530918</v>
       </c>
       <c r="S12">
-        <v>0.04450869922834224</v>
+        <v>0.04959598653631757</v>
       </c>
       <c r="T12">
-        <v>0.04450869922834224</v>
+        <v>0.04959598653631756</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.14038630818428</v>
+        <v>6.559571333333333</v>
       </c>
       <c r="H13">
-        <v>6.14038630818428</v>
+        <v>19.678714</v>
       </c>
       <c r="I13">
-        <v>0.2051783018803605</v>
+        <v>0.2140981182885632</v>
       </c>
       <c r="J13">
-        <v>0.2051783018803605</v>
+        <v>0.2140981182885631</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.44197247879308</v>
+        <v>9.475014333333332</v>
       </c>
       <c r="N13">
-        <v>9.44197247879308</v>
+        <v>28.425043</v>
       </c>
       <c r="O13">
-        <v>0.2871214171960725</v>
+        <v>0.2753911784079691</v>
       </c>
       <c r="P13">
-        <v>0.2871214171960725</v>
+        <v>0.2753911784079691</v>
       </c>
       <c r="Q13">
-        <v>57.97735853103381</v>
+        <v>62.15203240385577</v>
       </c>
       <c r="R13">
-        <v>57.97735853103381</v>
+        <v>559.3682916347019</v>
       </c>
       <c r="S13">
-        <v>0.05891108481377268</v>
+        <v>0.05896073309041618</v>
       </c>
       <c r="T13">
-        <v>0.05891108481377268</v>
+        <v>0.05896073309041617</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.69059467763521</v>
+        <v>6.773344333333334</v>
       </c>
       <c r="H14">
-        <v>6.69059467763521</v>
+        <v>20.320033</v>
       </c>
       <c r="I14">
-        <v>0.2235632720204046</v>
+        <v>0.2210754640197275</v>
       </c>
       <c r="J14">
-        <v>0.2235632720204046</v>
+        <v>0.2210754640197275</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.14852789838587</v>
+        <v>7.62053</v>
       </c>
       <c r="N14">
-        <v>7.14852789838587</v>
+        <v>22.86159</v>
       </c>
       <c r="O14">
-        <v>0.2173799453091154</v>
+        <v>0.2214906134136664</v>
       </c>
       <c r="P14">
-        <v>0.2173799453091154</v>
+        <v>0.2214906134136664</v>
       </c>
       <c r="Q14">
-        <v>47.82790270986732</v>
+        <v>51.61647369249667</v>
       </c>
       <c r="R14">
-        <v>47.82790270986732</v>
+        <v>464.54826323247</v>
       </c>
       <c r="S14">
-        <v>0.04859817184492245</v>
+        <v>0.04896614013644038</v>
       </c>
       <c r="T14">
-        <v>0.04859817184492245</v>
+        <v>0.04896614013644036</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.69059467763521</v>
+        <v>6.773344333333334</v>
       </c>
       <c r="H15">
-        <v>6.69059467763521</v>
+        <v>20.320033</v>
       </c>
       <c r="I15">
-        <v>0.2235632720204046</v>
+        <v>0.2210754640197275</v>
       </c>
       <c r="J15">
-        <v>0.2235632720204046</v>
+        <v>0.2210754640197275</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.16081571578682</v>
+        <v>9.340016666666665</v>
       </c>
       <c r="N15">
-        <v>9.16081571578682</v>
+        <v>28.02005</v>
       </c>
       <c r="O15">
-        <v>0.2785717070131705</v>
+        <v>0.2714674728390108</v>
       </c>
       <c r="P15">
-        <v>0.2785717070131705</v>
+        <v>0.2714674728390108</v>
       </c>
       <c r="Q15">
-        <v>61.29130487084029</v>
+        <v>63.26314896240555</v>
       </c>
       <c r="R15">
-        <v>61.29130487084029</v>
+        <v>569.36834066165</v>
       </c>
       <c r="S15">
-        <v>0.06227840231217388</v>
+        <v>0.0600147975241471</v>
       </c>
       <c r="T15">
-        <v>0.06227840231217388</v>
+        <v>0.06001479752414709</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.69059467763521</v>
+        <v>6.773344333333334</v>
       </c>
       <c r="H16">
-        <v>6.69059467763521</v>
+        <v>20.320033</v>
       </c>
       <c r="I16">
-        <v>0.2235632720204046</v>
+        <v>0.2210754640197275</v>
       </c>
       <c r="J16">
-        <v>0.2235632720204046</v>
+        <v>0.2210754640197275</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.133630529965</v>
+        <v>7.970095666666666</v>
       </c>
       <c r="N16">
-        <v>7.133630529965</v>
+        <v>23.910287</v>
       </c>
       <c r="O16">
-        <v>0.2169269304816417</v>
+        <v>0.2316507353393536</v>
       </c>
       <c r="P16">
-        <v>0.2169269304816417</v>
+        <v>0.2316507353393536</v>
       </c>
       <c r="Q16">
-        <v>47.72823045599987</v>
+        <v>53.98420231994123</v>
       </c>
       <c r="R16">
-        <v>47.72823045599987</v>
+        <v>485.857820879471</v>
       </c>
       <c r="S16">
-        <v>0.04849689436781866</v>
+        <v>0.05121229380565868</v>
       </c>
       <c r="T16">
-        <v>0.04849689436781866</v>
+        <v>0.05121229380565868</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.69059467763521</v>
+        <v>6.773344333333334</v>
       </c>
       <c r="H17">
-        <v>6.69059467763521</v>
+        <v>20.320033</v>
       </c>
       <c r="I17">
-        <v>0.2235632720204046</v>
+        <v>0.2210754640197275</v>
       </c>
       <c r="J17">
-        <v>0.2235632720204046</v>
+        <v>0.2210754640197275</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.44197247879308</v>
+        <v>9.475014333333332</v>
       </c>
       <c r="N17">
-        <v>9.44197247879308</v>
+        <v>28.425043</v>
       </c>
       <c r="O17">
-        <v>0.2871214171960725</v>
+        <v>0.2753911784079691</v>
       </c>
       <c r="P17">
-        <v>0.2871214171960725</v>
+        <v>0.2753911784079691</v>
       </c>
       <c r="Q17">
-        <v>63.17241081299111</v>
+        <v>64.17753464293544</v>
       </c>
       <c r="R17">
-        <v>63.17241081299111</v>
+        <v>577.597811786419</v>
       </c>
       <c r="S17">
-        <v>0.06418980349548963</v>
+        <v>0.06088223255348133</v>
       </c>
       <c r="T17">
-        <v>0.06418980349548963</v>
+        <v>0.06088223255348132</v>
       </c>
     </row>
   </sheetData>
